--- a/Code/Results/Cases/Case_3_216/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_216/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.20826264371486</v>
+        <v>15.91083539101749</v>
       </c>
       <c r="C2">
-        <v>7.125793038285366</v>
+        <v>4.825501082034571</v>
       </c>
       <c r="D2">
-        <v>5.100858138004276</v>
+        <v>7.368005756929478</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>30.17381092602386</v>
+        <v>36.84228511115724</v>
       </c>
       <c r="G2">
-        <v>2.11495268466803</v>
+        <v>3.705667921514321</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>22.20224523105428</v>
+        <v>30.52496718431971</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>13.11304922858912</v>
+        <v>13.5133341099533</v>
       </c>
       <c r="L2">
-        <v>8.089143477867939</v>
+        <v>10.84291897573359</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>14.74924537057963</v>
+        <v>21.93578902854646</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.23337864590338</v>
+        <v>15.7032247638344</v>
       </c>
       <c r="C3">
-        <v>6.674552916469379</v>
+        <v>4.616673925000294</v>
       </c>
       <c r="D3">
-        <v>5.150611310227637</v>
+        <v>7.374857746462713</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>29.34073251853933</v>
+        <v>36.76022303406105</v>
       </c>
       <c r="G3">
-        <v>2.122720103912079</v>
+        <v>3.708495499361875</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>21.94226658928497</v>
+        <v>30.54431279294691</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>12.2382855619393</v>
+        <v>13.37152055136399</v>
       </c>
       <c r="L3">
-        <v>7.80908770849535</v>
+        <v>10.8206473206199</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>14.92298014928385</v>
+        <v>21.9884425199562</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.61244829280892</v>
+        <v>15.57874467056088</v>
       </c>
       <c r="C4">
-        <v>6.384037584715112</v>
+        <v>4.482434811026328</v>
       </c>
       <c r="D4">
-        <v>5.181157634033926</v>
+        <v>7.37915758595267</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>28.8427509941701</v>
+        <v>36.71827005374546</v>
       </c>
       <c r="G4">
-        <v>2.127620923487739</v>
+        <v>3.710322960582109</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>21.79734202612507</v>
+        <v>30.56179560916966</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.76611809397658</v>
+        <v>13.28726692550226</v>
       </c>
       <c r="L4">
-        <v>7.637639068462397</v>
+        <v>10.80920367700985</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>15.03395856744958</v>
+        <v>22.02267694077661</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.35399333027454</v>
+        <v>15.52883436086294</v>
       </c>
       <c r="C5">
-        <v>6.262252306740986</v>
+        <v>4.426254621284887</v>
       </c>
       <c r="D5">
-        <v>5.193618930431608</v>
+        <v>7.380933318061249</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>28.64336208241702</v>
+        <v>36.70330327348967</v>
       </c>
       <c r="G5">
-        <v>2.129652401899538</v>
+        <v>3.711090707261032</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>21.74188775221428</v>
+        <v>30.57032765101166</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.57010867156014</v>
+        <v>13.25368048771652</v>
       </c>
       <c r="L5">
-        <v>7.567987035141195</v>
+        <v>10.80510444565587</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>15.08024975432255</v>
+        <v>22.03710720656925</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.31075656382178</v>
+        <v>15.52059792224647</v>
       </c>
       <c r="C6">
-        <v>6.241824446604221</v>
+        <v>4.416837944213944</v>
       </c>
       <c r="D6">
-        <v>5.195689322127055</v>
+        <v>7.381229603135665</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>28.61047175075067</v>
+        <v>36.70094687624045</v>
       </c>
       <c r="G6">
-        <v>2.129991837890342</v>
+        <v>3.711219584977751</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>21.73289442654666</v>
+        <v>30.57182935125658</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.53735037193836</v>
+        <v>13.24814972892815</v>
       </c>
       <c r="L6">
-        <v>7.556437016664955</v>
+        <v>10.80445792498023</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>15.08800037480737</v>
+        <v>22.03953231278205</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.6089843247873</v>
+        <v>15.57806817459061</v>
       </c>
       <c r="C7">
-        <v>6.382408918064139</v>
+        <v>4.481683071500993</v>
       </c>
       <c r="D7">
-        <v>5.181325619235503</v>
+        <v>7.379181438640585</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>28.8400474367688</v>
+        <v>36.71805957474887</v>
       </c>
       <c r="G7">
-        <v>2.127648179994551</v>
+        <v>3.710333221284125</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>21.79657968672634</v>
+        <v>30.56190497834791</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.76348893509875</v>
+        <v>13.28681089054387</v>
       </c>
       <c r="L7">
-        <v>7.636698727181191</v>
+        <v>10.80914610542467</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>15.0345785670735</v>
+        <v>22.02286961051066</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.87686369987545</v>
+        <v>15.83866849966395</v>
       </c>
       <c r="C8">
-        <v>6.972985613930079</v>
+        <v>4.754766872366276</v>
       </c>
       <c r="D8">
-        <v>5.118022244433004</v>
+        <v>7.370349209233431</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>29.88384007850514</v>
+        <v>36.81224558986195</v>
       </c>
       <c r="G8">
-        <v>2.117604363945059</v>
+        <v>3.706623965146029</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>22.10949804041578</v>
+        <v>30.53047346509699</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.80381206773173</v>
+        <v>13.46387488394632</v>
       </c>
       <c r="L8">
-        <v>7.992525126818249</v>
+        <v>10.83477860637983</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>14.80824537457159</v>
+        <v>21.95354884271058</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.19279633820443</v>
+        <v>16.37060137433345</v>
       </c>
       <c r="C9">
-        <v>8.025491674086545</v>
+        <v>5.241194298875358</v>
       </c>
       <c r="D9">
-        <v>4.99318063557246</v>
+        <v>7.353755043226753</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>32.03228365985823</v>
+        <v>37.06338755094157</v>
       </c>
       <c r="G9">
-        <v>2.098891256669405</v>
+        <v>3.700071081295411</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>22.84378782811028</v>
+        <v>30.51336390459514</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>14.92139506734698</v>
+        <v>13.83172176048583</v>
       </c>
       <c r="L9">
-        <v>8.690912369467004</v>
+        <v>10.90259190215109</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>14.39941774765366</v>
+        <v>21.83270561343635</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.9245845439992</v>
+        <v>16.7702756583993</v>
       </c>
       <c r="C10">
-        <v>8.73649976012563</v>
+        <v>5.567195787929735</v>
       </c>
       <c r="D10">
-        <v>4.899987872369159</v>
+        <v>7.34199185023995</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>33.66596965931484</v>
+        <v>37.28764749439596</v>
       </c>
       <c r="G10">
-        <v>2.08564946485158</v>
+        <v>3.695691149727022</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>23.46214953333673</v>
+        <v>30.52799465940569</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>16.33699730158407</v>
+        <v>14.11212841391229</v>
       </c>
       <c r="L10">
-        <v>9.20053930610557</v>
+        <v>10.96287389446143</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>14.12184501788972</v>
+        <v>21.75309521732725</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.6775589279325</v>
+        <v>16.9531999278719</v>
       </c>
       <c r="C11">
-        <v>9.047040067399493</v>
+        <v>5.708464118466919</v>
       </c>
       <c r="D11">
-        <v>4.857014739107779</v>
+        <v>7.336730519428955</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>34.42017369775444</v>
+        <v>37.39809580219646</v>
       </c>
       <c r="G11">
-        <v>2.079712927896047</v>
+        <v>3.693791872807915</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>23.76171706220766</v>
+        <v>30.54055878670276</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>16.9518397622278</v>
+        <v>14.24136828801561</v>
       </c>
       <c r="L11">
-        <v>9.431031869405052</v>
+        <v>10.99250839522139</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>14.0009334543992</v>
+        <v>21.718864421789</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.95779632605041</v>
+        <v>17.02256061460017</v>
       </c>
       <c r="C12">
-        <v>9.162837310937881</v>
+        <v>5.760933091332507</v>
       </c>
       <c r="D12">
-        <v>4.840634811632915</v>
+        <v>7.334750881200995</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>34.70730979334032</v>
+        <v>37.44111167471556</v>
       </c>
       <c r="G12">
-        <v>2.077475403705652</v>
+        <v>3.693085982748635</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>23.87787764186945</v>
+        <v>30.54616523040112</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>17.1805904579126</v>
+        <v>14.29050538250207</v>
       </c>
       <c r="L12">
-        <v>9.518086434166795</v>
+        <v>11.00404240835529</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>13.95596120713132</v>
+        <v>21.70618710874678</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.89765811832261</v>
+        <v>17.00761956621743</v>
       </c>
       <c r="C13">
-        <v>9.137977255373823</v>
+        <v>5.749678815033429</v>
       </c>
       <c r="D13">
-        <v>4.844167679933185</v>
+        <v>7.335176669447523</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>34.64540205892688</v>
+        <v>37.4317947978379</v>
       </c>
       <c r="G13">
-        <v>2.077956861317746</v>
+        <v>3.693237417343603</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>23.85273782435282</v>
+        <v>30.54492005822773</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>17.13150436753657</v>
+        <v>14.27991479324662</v>
       </c>
       <c r="L13">
-        <v>9.499348248769527</v>
+        <v>11.0015445730081</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>13.96560978553071</v>
+        <v>21.70890471598035</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.70071170597966</v>
+        <v>16.95890483170813</v>
       </c>
       <c r="C14">
-        <v>9.056602446949721</v>
+        <v>5.712801417488359</v>
       </c>
       <c r="D14">
-        <v>4.855669439601789</v>
+        <v>7.336567399745856</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>34.44376595691615</v>
+        <v>37.40161099107301</v>
       </c>
       <c r="G14">
-        <v>2.079528647021596</v>
+        <v>3.693733532177534</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>23.7712185782943</v>
+        <v>30.54100303081721</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>16.97074026104552</v>
+        <v>14.24540714001559</v>
       </c>
       <c r="L14">
-        <v>9.438198629090602</v>
+        <v>10.99345108698173</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>13.99721696108449</v>
+        <v>21.71781573795065</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.57944201488518</v>
+        <v>16.92907552488808</v>
       </c>
       <c r="C15">
-        <v>9.00652575906437</v>
+        <v>5.690078892966301</v>
       </c>
       <c r="D15">
-        <v>4.862699931678609</v>
+        <v>7.33742091196337</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>34.32045703853421</v>
+        <v>37.38327705279079</v>
       </c>
       <c r="G15">
-        <v>2.080492716903955</v>
+        <v>3.694039149954071</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>23.72164288674667</v>
+        <v>30.53871422391989</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>16.87174011122368</v>
+        <v>14.22429449762075</v>
       </c>
       <c r="L15">
-        <v>9.400712190319378</v>
+        <v>10.98853404837268</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>14.01668475358723</v>
+        <v>21.72331112499155</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.87468424564025</v>
+        <v>16.75833758993465</v>
       </c>
       <c r="C16">
-        <v>8.715950364784071</v>
+        <v>5.557820718087793</v>
       </c>
       <c r="D16">
-        <v>4.902782643708081</v>
+        <v>7.34233748054012</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>33.61689753009973</v>
+        <v>37.2805973526278</v>
       </c>
       <c r="G16">
-        <v>2.086039017393966</v>
+        <v>3.695817140567101</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>23.44294763490164</v>
+        <v>30.52729238955767</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>16.29623919449622</v>
+        <v>14.10371226516331</v>
       </c>
       <c r="L16">
-        <v>9.185445825432344</v>
+        <v>10.96098121675689</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>14.12985826598559</v>
+        <v>21.75537219302163</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.43349291522243</v>
+        <v>16.65383068837195</v>
       </c>
       <c r="C17">
-        <v>8.534426082138436</v>
+        <v>5.474871982635909</v>
       </c>
       <c r="D17">
-        <v>4.927207629051469</v>
+        <v>7.34537649447203</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>33.1880655379518</v>
+        <v>37.21975186896613</v>
       </c>
       <c r="G17">
-        <v>2.08946244641357</v>
+        <v>3.69693169222297</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>23.2767219238894</v>
+        <v>30.52179827346869</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>15.93580566061008</v>
+        <v>14.03013753774123</v>
       </c>
       <c r="L17">
-        <v>9.053014875849625</v>
+        <v>10.94464084421378</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>14.2006876963071</v>
+        <v>21.77554871315646</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.17644606328191</v>
+        <v>16.59382962441473</v>
       </c>
       <c r="C18">
-        <v>8.428799928507548</v>
+        <v>5.426500946398528</v>
       </c>
       <c r="D18">
-        <v>4.941203256978045</v>
+        <v>7.347132919595276</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>32.94245226082281</v>
+        <v>37.18555012791631</v>
       </c>
       <c r="G18">
-        <v>2.091439853763442</v>
+        <v>3.697581527387977</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>23.18282731799556</v>
+        <v>30.51919443345543</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>15.72574563867247</v>
+        <v>13.98798026041256</v>
       </c>
       <c r="L18">
-        <v>8.976719404200566</v>
+        <v>10.93545087828359</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>14.2419281498493</v>
+        <v>21.78734050312883</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.08884702750269</v>
+        <v>16.57353504478662</v>
       </c>
       <c r="C19">
-        <v>8.392825874333022</v>
+        <v>5.410010306894759</v>
       </c>
       <c r="D19">
-        <v>4.945933519776503</v>
+        <v>7.347729074916357</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>32.85947245827457</v>
+        <v>37.17410714968063</v>
       </c>
       <c r="G19">
-        <v>2.092110861410502</v>
+        <v>3.697803059697918</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>23.15132783567915</v>
+        <v>30.51840837122941</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>15.65414766683667</v>
+        <v>13.97373555119638</v>
       </c>
       <c r="L19">
-        <v>8.95086692747053</v>
+        <v>10.93237531384257</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>14.25597632982425</v>
+        <v>21.79136508846334</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.48079774235123</v>
+        <v>16.664944892969</v>
       </c>
       <c r="C20">
-        <v>8.553875337244399</v>
+        <v>5.483770559303347</v>
       </c>
       <c r="D20">
-        <v>4.924613194445658</v>
+        <v>7.34505211162529</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>33.23360832217706</v>
+        <v>37.22614684342953</v>
       </c>
       <c r="G20">
-        <v>2.089097167340801</v>
+        <v>3.696812138700251</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>23.2942388789315</v>
+        <v>30.52232556887072</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>15.97445807367693</v>
+        <v>14.03795336126942</v>
       </c>
       <c r="L20">
-        <v>9.067125576332144</v>
+        <v>10.94635875915971</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>14.19309561203703</v>
+        <v>21.77338155766592</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.75869161922725</v>
+        <v>16.97321159227155</v>
       </c>
       <c r="C21">
-        <v>9.080552491708673</v>
+        <v>5.723661162926684</v>
       </c>
       <c r="D21">
-        <v>4.852294196336429</v>
+        <v>7.336158565092851</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>34.50294993567781</v>
+        <v>37.41044454595818</v>
       </c>
       <c r="G21">
-        <v>2.079066707233498</v>
+        <v>3.693587450175996</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>23.79508814182795</v>
+        <v>30.5421305341206</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>17.01807029566699</v>
+        <v>14.25553789184707</v>
       </c>
       <c r="L21">
-        <v>9.456166163349366</v>
+        <v>10.99581992049062</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>13.98791067839425</v>
+        <v>21.71519061751616</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.56538245607213</v>
+        <v>17.17518284667327</v>
       </c>
       <c r="C22">
-        <v>9.414320717879157</v>
+        <v>5.874456478376243</v>
       </c>
       <c r="D22">
-        <v>4.80439351926998</v>
+        <v>7.330420130478416</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>35.34148896265675</v>
+        <v>37.53782768724805</v>
       </c>
       <c r="G22">
-        <v>2.072571420658729</v>
+        <v>3.691557563608948</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>24.138329233718</v>
+        <v>30.56002015235226</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>17.67642590838179</v>
+        <v>14.39886817964597</v>
       </c>
       <c r="L22">
-        <v>9.709090183646349</v>
+        <v>11.02996154930488</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>13.85858316905876</v>
+        <v>21.6788214463075</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.13740306419494</v>
+        <v>17.067363352109</v>
       </c>
       <c r="C23">
-        <v>9.237117110394189</v>
+        <v>5.794526298931933</v>
       </c>
       <c r="D23">
-        <v>4.830025653260061</v>
+        <v>7.333476134840692</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>34.8931337161531</v>
+        <v>37.46921384310269</v>
       </c>
       <c r="G23">
-        <v>2.076033289905748</v>
+        <v>3.692633873001104</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>23.95364706056348</v>
+        <v>30.55002003330473</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>17.32717938445465</v>
+        <v>14.32228185476972</v>
       </c>
       <c r="L23">
-        <v>9.5742306880001</v>
+        <v>11.01157545860994</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>13.92715442250357</v>
+        <v>21.69808034862897</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.45942182866164</v>
+        <v>16.65991990242327</v>
       </c>
       <c r="C24">
-        <v>8.545086274782063</v>
+        <v>5.47974963816934</v>
       </c>
       <c r="D24">
-        <v>4.925786281790563</v>
+        <v>7.345198736233498</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>33.21301553474819</v>
+        <v>37.22325324681199</v>
       </c>
       <c r="G24">
-        <v>2.089262281101587</v>
+        <v>3.69686616060619</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>23.28631426646429</v>
+        <v>30.52208545027222</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>15.95699217815769</v>
+        <v>14.0344193822573</v>
       </c>
       <c r="L24">
-        <v>9.060746621539765</v>
+        <v>10.94558145289647</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>14.19652637790054</v>
+        <v>21.77436073037927</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.57705025035009</v>
+        <v>16.22486179797116</v>
       </c>
       <c r="C25">
-        <v>7.751876331408634</v>
+        <v>5.115024459628429</v>
       </c>
       <c r="D25">
-        <v>5.027131068775762</v>
+        <v>7.35816794623375</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>31.44095278829485</v>
+        <v>36.98840405407282</v>
       </c>
       <c r="G25">
-        <v>2.103857536545275</v>
+        <v>3.701767149658834</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>22.63166857921297</v>
+        <v>30.51321769014746</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>14.37356610186522</v>
+        <v>13.73024865778045</v>
       </c>
       <c r="L25">
-        <v>8.502351145423811</v>
+        <v>10.88239064755522</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>14.50613533875412</v>
+        <v>21.86378400103986</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_216/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_216/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.91083539101749</v>
+        <v>16.20826264371487</v>
       </c>
       <c r="C2">
-        <v>4.825501082034571</v>
+        <v>7.125793038285279</v>
       </c>
       <c r="D2">
-        <v>7.368005756929478</v>
+        <v>5.100858138004143</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>36.84228511115724</v>
+        <v>30.17381092602396</v>
       </c>
       <c r="G2">
-        <v>3.705667921514321</v>
+        <v>2.114952684668292</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>30.52496718431971</v>
+        <v>22.20224523105433</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>13.5133341099533</v>
+        <v>13.11304922858914</v>
       </c>
       <c r="L2">
-        <v>10.84291897573359</v>
+        <v>8.089143477867973</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>21.93578902854646</v>
+        <v>14.74924537057968</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.7032247638344</v>
+        <v>15.23337864590338</v>
       </c>
       <c r="C3">
-        <v>4.616673925000294</v>
+        <v>6.674552916469456</v>
       </c>
       <c r="D3">
-        <v>7.374857746462713</v>
+        <v>5.150611310227635</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>36.76022303406105</v>
+        <v>29.34073251853916</v>
       </c>
       <c r="G3">
-        <v>3.708495499361875</v>
+        <v>2.122720103912078</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>30.54431279294691</v>
+        <v>21.94226658928482</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>13.37152055136399</v>
+        <v>12.2382855619393</v>
       </c>
       <c r="L3">
-        <v>10.8206473206199</v>
+        <v>7.809087708495342</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>21.9884425199562</v>
+        <v>14.92298014928371</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.57874467056088</v>
+        <v>14.61244829280896</v>
       </c>
       <c r="C4">
-        <v>4.482434811026328</v>
+        <v>6.384037584714952</v>
       </c>
       <c r="D4">
-        <v>7.37915758595267</v>
+        <v>5.181157634034061</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>36.71827005374546</v>
+        <v>28.84275099417027</v>
       </c>
       <c r="G4">
-        <v>3.710322960582109</v>
+        <v>2.127620923487874</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>30.56179560916966</v>
+        <v>21.79734202612518</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>13.28726692550226</v>
+        <v>11.76611809397662</v>
       </c>
       <c r="L4">
-        <v>10.80920367700985</v>
+        <v>7.637639068462406</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>22.02267694077661</v>
+        <v>15.03395856744965</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.52883436086294</v>
+        <v>14.35399333027456</v>
       </c>
       <c r="C5">
-        <v>4.426254621284887</v>
+        <v>6.262252306740986</v>
       </c>
       <c r="D5">
-        <v>7.380933318061249</v>
+        <v>5.193618930431606</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>36.70330327348967</v>
+        <v>28.64336208241701</v>
       </c>
       <c r="G5">
-        <v>3.711090707261032</v>
+        <v>2.129652401899405</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>30.57032765101166</v>
+        <v>21.74188775221428</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>13.25368048771652</v>
+        <v>11.57010867156016</v>
       </c>
       <c r="L5">
-        <v>10.80510444565587</v>
+        <v>7.567987035141152</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>22.03710720656925</v>
+        <v>15.08024975432249</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.52059792224647</v>
+        <v>14.31075656382179</v>
       </c>
       <c r="C6">
-        <v>4.416837944213944</v>
+        <v>6.241824446604192</v>
       </c>
       <c r="D6">
-        <v>7.381229603135665</v>
+        <v>5.195689322127325</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>36.70094687624045</v>
+        <v>28.61047175075053</v>
       </c>
       <c r="G6">
-        <v>3.711219584977751</v>
+        <v>2.129991837890341</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>30.57182935125658</v>
+        <v>21.73289442654666</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>13.24814972892815</v>
+        <v>11.53735037193836</v>
       </c>
       <c r="L6">
-        <v>10.80445792498023</v>
+        <v>7.556437016664999</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>22.03953231278205</v>
+        <v>15.08800037480735</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.57806817459061</v>
+        <v>14.60898432478732</v>
       </c>
       <c r="C7">
-        <v>4.481683071500993</v>
+        <v>6.382408918064154</v>
       </c>
       <c r="D7">
-        <v>7.379181438640585</v>
+        <v>5.1813256192355</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>36.71805957474887</v>
+        <v>28.84004743676883</v>
       </c>
       <c r="G7">
-        <v>3.710333221284125</v>
+        <v>2.127648179994818</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>30.56190497834791</v>
+        <v>21.7965796867264</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>13.28681089054387</v>
+        <v>11.76348893509874</v>
       </c>
       <c r="L7">
-        <v>10.80914610542467</v>
+        <v>7.636698727181222</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>22.02286961051066</v>
+        <v>15.03457856707354</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.83866849966395</v>
+        <v>15.87686369987548</v>
       </c>
       <c r="C8">
-        <v>4.754766872366276</v>
+        <v>6.972985613929991</v>
       </c>
       <c r="D8">
-        <v>7.370349209233431</v>
+        <v>5.118022244433138</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>36.81224558986195</v>
+        <v>29.88384007850518</v>
       </c>
       <c r="G8">
-        <v>3.706623965146029</v>
+        <v>2.117604363944927</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>30.53047346509699</v>
+        <v>22.10949804041585</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>13.46387488394632</v>
+        <v>12.80381206773174</v>
       </c>
       <c r="L8">
-        <v>10.83477860637983</v>
+        <v>7.992525126818213</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>21.95354884271058</v>
+        <v>14.80824537457164</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.37060137433345</v>
+        <v>18.19279633820443</v>
       </c>
       <c r="C9">
-        <v>5.241194298875358</v>
+        <v>8.025491674086609</v>
       </c>
       <c r="D9">
-        <v>7.353755043226753</v>
+        <v>4.993180635572526</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>37.06338755094157</v>
+        <v>32.03228365985839</v>
       </c>
       <c r="G9">
-        <v>3.700071081295411</v>
+        <v>2.098891256669404</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>30.51336390459514</v>
+        <v>22.84378782811041</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>13.83172176048583</v>
+        <v>14.92139506734699</v>
       </c>
       <c r="L9">
-        <v>10.90259190215109</v>
+        <v>8.690912369466972</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>21.83270561343635</v>
+        <v>14.39941774765372</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.7702756583993</v>
+        <v>19.92458454399931</v>
       </c>
       <c r="C10">
-        <v>5.567195787929735</v>
+        <v>8.736499760125891</v>
       </c>
       <c r="D10">
-        <v>7.34199185023995</v>
+        <v>4.899987872368818</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>37.28764749439596</v>
+        <v>33.66596965931479</v>
       </c>
       <c r="G10">
-        <v>3.695691149727022</v>
+        <v>2.08564946485158</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>30.52799465940569</v>
+        <v>23.46214953333661</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>14.11212841391229</v>
+        <v>16.33699730158423</v>
       </c>
       <c r="L10">
-        <v>10.96287389446143</v>
+        <v>9.200539306105577</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>21.75309521732725</v>
+        <v>14.12184501788955</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.9531999278719</v>
+        <v>20.67755892793252</v>
       </c>
       <c r="C11">
-        <v>5.708464118466919</v>
+        <v>9.047040067399397</v>
       </c>
       <c r="D11">
-        <v>7.336730519428955</v>
+        <v>4.85701473910771</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>37.39809580219646</v>
+        <v>34.42017369775446</v>
       </c>
       <c r="G11">
-        <v>3.693791872807915</v>
+        <v>2.079712927896046</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>30.54055878670276</v>
+        <v>23.76171706220763</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.24136828801561</v>
+        <v>16.9518397622278</v>
       </c>
       <c r="L11">
-        <v>10.99250839522139</v>
+        <v>9.431031869405084</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>21.718864421789</v>
+        <v>14.00093345439918</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.02256061460017</v>
+        <v>20.95779632605037</v>
       </c>
       <c r="C12">
-        <v>5.760933091332507</v>
+        <v>9.162837310937853</v>
       </c>
       <c r="D12">
-        <v>7.334750881200995</v>
+        <v>4.840634811632914</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>37.44111167471556</v>
+        <v>34.70730979334042</v>
       </c>
       <c r="G12">
-        <v>3.693085982748635</v>
+        <v>2.077475403705788</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>30.54616523040112</v>
+        <v>23.87787764186961</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.29050538250207</v>
+        <v>17.18059045791253</v>
       </c>
       <c r="L12">
-        <v>11.00404240835529</v>
+        <v>9.51808643416677</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>21.70618710874678</v>
+        <v>13.95596120713144</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.00761956621743</v>
+        <v>20.89765811832267</v>
       </c>
       <c r="C13">
-        <v>5.749678815033429</v>
+        <v>9.137977255373771</v>
       </c>
       <c r="D13">
-        <v>7.335176669447523</v>
+        <v>4.844167679933451</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>37.4317947978379</v>
+        <v>34.64540205892691</v>
       </c>
       <c r="G13">
-        <v>3.693237417343603</v>
+        <v>2.077956861317344</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>30.54492005822773</v>
+        <v>23.85273782435286</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.27991479324662</v>
+        <v>17.13150436753658</v>
       </c>
       <c r="L13">
-        <v>11.0015445730081</v>
+        <v>9.499348248769508</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>21.70890471598035</v>
+        <v>13.9656097855307</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.95890483170813</v>
+        <v>20.70071170597967</v>
       </c>
       <c r="C14">
-        <v>5.712801417488359</v>
+        <v>9.056602446949693</v>
       </c>
       <c r="D14">
-        <v>7.336567399745856</v>
+        <v>4.855669439601654</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>37.40161099107301</v>
+        <v>34.44376595691615</v>
       </c>
       <c r="G14">
-        <v>3.693733532177534</v>
+        <v>2.079528647021597</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>30.54100303081721</v>
+        <v>23.77121857829425</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.24540714001559</v>
+        <v>16.97074026104548</v>
       </c>
       <c r="L14">
-        <v>10.99345108698173</v>
+        <v>9.438198629090586</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>21.71781573795065</v>
+        <v>13.99721696108443</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.92907552488808</v>
+        <v>20.57944201488512</v>
       </c>
       <c r="C15">
-        <v>5.690078892966301</v>
+        <v>9.006525759064496</v>
       </c>
       <c r="D15">
-        <v>7.33742091196337</v>
+        <v>4.862699931678678</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>37.38327705279079</v>
+        <v>34.32045703853441</v>
       </c>
       <c r="G15">
-        <v>3.694039149954071</v>
+        <v>2.080492716903954</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>30.53871422391989</v>
+        <v>23.7216428867469</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.22429449762075</v>
+        <v>16.8717401112236</v>
       </c>
       <c r="L15">
-        <v>10.98853404837268</v>
+        <v>9.400712190319386</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>21.72331112499155</v>
+        <v>14.01668475358742</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.75833758993465</v>
+        <v>19.87468424564031</v>
       </c>
       <c r="C16">
-        <v>5.557820718087793</v>
+        <v>8.715950364783819</v>
       </c>
       <c r="D16">
-        <v>7.34233748054012</v>
+        <v>4.902782643708214</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>37.2805973526278</v>
+        <v>33.61689753009971</v>
       </c>
       <c r="G16">
-        <v>3.695817140567101</v>
+        <v>2.086039017393832</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>30.52729238955767</v>
+        <v>23.44294763490158</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>14.10371226516331</v>
+        <v>16.29623919449622</v>
       </c>
       <c r="L16">
-        <v>10.96098121675689</v>
+        <v>9.18544582543236</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>21.75537219302163</v>
+        <v>14.12985826598554</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.65383068837195</v>
+        <v>19.43349291522252</v>
       </c>
       <c r="C17">
-        <v>5.474871982635909</v>
+        <v>8.53442608213834</v>
       </c>
       <c r="D17">
-        <v>7.34537649447203</v>
+        <v>4.927207629051535</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>37.21975186896613</v>
+        <v>33.18806553795176</v>
       </c>
       <c r="G17">
-        <v>3.69693169222297</v>
+        <v>2.089462446413437</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>30.52179827346869</v>
+        <v>23.27672192388932</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>14.03013753774123</v>
+        <v>15.93580566061014</v>
       </c>
       <c r="L17">
-        <v>10.94464084421378</v>
+        <v>9.053014875849607</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>21.77554871315646</v>
+        <v>14.200687696307</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.59382962441473</v>
+        <v>19.17644606328194</v>
       </c>
       <c r="C18">
-        <v>5.426500946398528</v>
+        <v>8.428799928507564</v>
       </c>
       <c r="D18">
-        <v>7.347132919595276</v>
+        <v>4.941203256977913</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>37.18555012791631</v>
+        <v>32.94245226082274</v>
       </c>
       <c r="G18">
-        <v>3.697581527387977</v>
+        <v>2.091439853763311</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>30.51919443345543</v>
+        <v>23.18282731799545</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.98798026041256</v>
+        <v>15.72574563867252</v>
       </c>
       <c r="L18">
-        <v>10.93545087828359</v>
+        <v>8.976719404200589</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>21.78734050312883</v>
+        <v>14.24192814984927</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.57353504478662</v>
+        <v>19.08884702750277</v>
       </c>
       <c r="C19">
-        <v>5.410010306894759</v>
+        <v>8.392825874333077</v>
       </c>
       <c r="D19">
-        <v>7.347729074916357</v>
+        <v>4.945933519776367</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>37.17410714968063</v>
+        <v>32.85947245827466</v>
       </c>
       <c r="G19">
-        <v>3.697803059697918</v>
+        <v>2.092110861410504</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>30.51840837122941</v>
+        <v>23.15132783567918</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.97373555119638</v>
+        <v>15.65414766683674</v>
       </c>
       <c r="L19">
-        <v>10.93237531384257</v>
+        <v>8.950866927470544</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>21.79136508846334</v>
+        <v>14.25597632982427</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.664944892969</v>
+        <v>19.48079774235117</v>
       </c>
       <c r="C20">
-        <v>5.483770559303347</v>
+        <v>8.553875337244115</v>
       </c>
       <c r="D20">
-        <v>7.34505211162529</v>
+        <v>4.924613194445925</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>37.22614684342953</v>
+        <v>33.23360832217715</v>
       </c>
       <c r="G20">
-        <v>3.696812138700251</v>
+        <v>2.089097167340672</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>30.52232556887072</v>
+        <v>23.29423887893165</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>14.03795336126942</v>
+        <v>15.97445807367682</v>
       </c>
       <c r="L20">
-        <v>10.94635875915971</v>
+        <v>9.067125576332145</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>21.77338155766592</v>
+        <v>14.19309561203717</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.97321159227155</v>
+        <v>20.75869161922728</v>
       </c>
       <c r="C21">
-        <v>5.723661162926684</v>
+        <v>9.08055249170862</v>
       </c>
       <c r="D21">
-        <v>7.336158565092851</v>
+        <v>4.852294196336361</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>37.41044454595818</v>
+        <v>34.50294993567785</v>
       </c>
       <c r="G21">
-        <v>3.693587450175996</v>
+        <v>2.079066707233496</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>30.5421305341206</v>
+        <v>23.79508814182794</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.25553789184707</v>
+        <v>17.01807029566702</v>
       </c>
       <c r="L21">
-        <v>10.99581992049062</v>
+        <v>9.456166163349348</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>21.71519061751616</v>
+        <v>13.98791067839426</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.17518284667327</v>
+        <v>21.56538245607208</v>
       </c>
       <c r="C22">
-        <v>5.874456478376243</v>
+        <v>9.414320717879217</v>
       </c>
       <c r="D22">
-        <v>7.330420130478416</v>
+        <v>4.804393519270048</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>37.53782768724805</v>
+        <v>35.34148896265673</v>
       </c>
       <c r="G22">
-        <v>3.691557563608948</v>
+        <v>2.072571420658996</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>30.56002015235226</v>
+        <v>24.13832923371804</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.39886817964597</v>
+        <v>17.67642590838179</v>
       </c>
       <c r="L22">
-        <v>11.02996154930488</v>
+        <v>9.709090183646337</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>21.6788214463075</v>
+        <v>13.85858316905881</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.067363352109</v>
+        <v>21.13740306419502</v>
       </c>
       <c r="C23">
-        <v>5.794526298931933</v>
+        <v>9.237117110394163</v>
       </c>
       <c r="D23">
-        <v>7.333476134840692</v>
+        <v>4.830025653259991</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>37.46921384310269</v>
+        <v>34.89313371615313</v>
       </c>
       <c r="G23">
-        <v>3.692633873001104</v>
+        <v>2.076033289905482</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>30.55002003330473</v>
+        <v>23.95364706056347</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.32228185476972</v>
+        <v>17.32717938445471</v>
       </c>
       <c r="L23">
-        <v>11.01157545860994</v>
+        <v>9.574230688000087</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>21.69808034862897</v>
+        <v>13.92715442250353</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.65991990242327</v>
+        <v>19.45942182866173</v>
       </c>
       <c r="C24">
-        <v>5.47974963816934</v>
+        <v>8.54508627478206</v>
       </c>
       <c r="D24">
-        <v>7.345198736233498</v>
+        <v>4.925786281790361</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>37.22325324681199</v>
+        <v>33.21301553474821</v>
       </c>
       <c r="G24">
-        <v>3.69686616060619</v>
+        <v>2.089262281101852</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>30.52208545027222</v>
+        <v>23.28631426646422</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>14.0344193822573</v>
+        <v>15.95699217815778</v>
       </c>
       <c r="L24">
-        <v>10.94558145289647</v>
+        <v>9.060746621539776</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>21.77436073037927</v>
+        <v>14.1965263779005</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.22486179797116</v>
+        <v>17.57705025035012</v>
       </c>
       <c r="C25">
-        <v>5.115024459628429</v>
+        <v>7.751876331408634</v>
       </c>
       <c r="D25">
-        <v>7.35816794623375</v>
+        <v>5.027131068775558</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>36.98840405407282</v>
+        <v>31.440952788295</v>
       </c>
       <c r="G25">
-        <v>3.701767149658834</v>
+        <v>2.103857536545544</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>30.51321769014746</v>
+        <v>22.63166857921307</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>13.73024865778045</v>
+        <v>14.37356610186522</v>
       </c>
       <c r="L25">
-        <v>10.88239064755522</v>
+        <v>8.50235114542383</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>21.86378400103986</v>
+        <v>14.50613533875415</v>
       </c>
       <c r="O25">
         <v>0</v>
